--- a/data/5024.xlsx
+++ b/data/5024.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42973,6 +42973,41 @@
         <v>309800</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5024</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>HUPSENG</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>262800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5024.xlsx
+++ b/data/5024.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43008,6 +43008,41 @@
         <v>262800</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5024</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>HUPSENG</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>188100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5024.xlsx
+++ b/data/5024.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43043,6 +43043,41 @@
         <v>188100</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5024</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>HUPSENG</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>121600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5024.xlsx
+++ b/data/5024.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43078,6 +43078,41 @@
         <v>121600</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5024</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>HUPSENG</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>58600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5024.xlsx
+++ b/data/5024.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43113,6 +43113,41 @@
         <v>58600</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5024</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>HUPSENG</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>112900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5024.xlsx
+++ b/data/5024.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43148,6 +43148,41 @@
         <v>112900</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5024</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>HUPSENG</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>47600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5024.xlsx
+++ b/data/5024.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43183,6 +43183,41 @@
         <v>47600</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5024</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>HUPSENG</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>237800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5024.xlsx
+++ b/data/5024.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43218,6 +43218,41 @@
         <v>237800</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5024</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>HUPSENG</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>120300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5024.xlsx
+++ b/data/5024.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43253,6 +43253,41 @@
         <v>120300</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5024</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>HUPSENG</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>28300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5024.xlsx
+++ b/data/5024.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43288,6 +43288,41 @@
         <v>28300</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5024</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>HUPSENG</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>205800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5024.xlsx
+++ b/data/5024.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43323,6 +43323,41 @@
         <v>205800</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5024</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>HUPSENG</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>93800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5024.xlsx
+++ b/data/5024.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43358,6 +43358,41 @@
         <v>93800</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5024</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>HUPSENG</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>86200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5024.xlsx
+++ b/data/5024.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43393,6 +43393,76 @@
         <v>86200</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5024</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>HUPSENG</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>196700</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5024</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>HUPSENG</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>558200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5024.xlsx
+++ b/data/5024.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43463,6 +43463,76 @@
         <v>558200</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5024</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>HUPSENG</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>438100</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5024</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>HUPSENG</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>31500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5024.xlsx
+++ b/data/5024.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43533,6 +43533,41 @@
         <v>31500</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5024</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>HUPSENG</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>133200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5024.xlsx
+++ b/data/5024.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43568,6 +43568,41 @@
         <v>133200</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5024</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>HUPSENG</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>339900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5024.xlsx
+++ b/data/5024.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43603,6 +43603,41 @@
         <v>339900</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5024</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>HUPSENG</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>75700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5024.xlsx
+++ b/data/5024.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43638,6 +43638,41 @@
         <v>75700</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5024</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>HUPSENG</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>704900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5024.xlsx
+++ b/data/5024.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43673,6 +43673,76 @@
         <v>704900</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5024</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>HUPSENG</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>354500</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5024</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>HUPSENG</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>226100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5024.xlsx
+++ b/data/5024.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43743,6 +43743,41 @@
         <v>226100</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>5024</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>HUPSENG</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>846300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5024.xlsx
+++ b/data/5024.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43778,6 +43778,41 @@
         <v>846300</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>5024</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>HUPSENG</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>839000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5024.xlsx
+++ b/data/5024.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2570"/>
+  <dimension ref="A1:I2571"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90328,6 +90328,41 @@
         <v>839000</v>
       </c>
     </row>
+    <row r="2571">
+      <c r="A2571" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2571" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2571" t="inlineStr">
+        <is>
+          <t>5024</t>
+        </is>
+      </c>
+      <c r="D2571" t="inlineStr">
+        <is>
+          <t>HUPSENG</t>
+        </is>
+      </c>
+      <c r="E2571" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F2571" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G2571" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="H2571" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="I2571" t="n">
+        <v>847400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5024.xlsx
+++ b/data/5024.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2571"/>
+  <dimension ref="A1:I2572"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90363,6 +90363,41 @@
         <v>847400</v>
       </c>
     </row>
+    <row r="2572">
+      <c r="A2572" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2572" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2572" t="inlineStr">
+        <is>
+          <t>5024</t>
+        </is>
+      </c>
+      <c r="D2572" t="inlineStr">
+        <is>
+          <t>HUPSENG</t>
+        </is>
+      </c>
+      <c r="E2572" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F2572" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G2572" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H2572" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="I2572" t="n">
+        <v>811600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5024.xlsx
+++ b/data/5024.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2572"/>
+  <dimension ref="A1:I2573"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90398,6 +90398,41 @@
         <v>811600</v>
       </c>
     </row>
+    <row r="2573">
+      <c r="A2573" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2573" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2573" t="inlineStr">
+        <is>
+          <t>5024</t>
+        </is>
+      </c>
+      <c r="D2573" t="inlineStr">
+        <is>
+          <t>HUPSENG</t>
+        </is>
+      </c>
+      <c r="E2573" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F2573" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="G2573" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H2573" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="I2573" t="n">
+        <v>359000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5024.xlsx
+++ b/data/5024.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2573"/>
+  <dimension ref="A1:I2574"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90433,6 +90433,41 @@
         <v>359000</v>
       </c>
     </row>
+    <row r="2574">
+      <c r="A2574" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2574" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2574" t="inlineStr">
+        <is>
+          <t>5024</t>
+        </is>
+      </c>
+      <c r="D2574" t="inlineStr">
+        <is>
+          <t>HUPSENG</t>
+        </is>
+      </c>
+      <c r="E2574" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F2574" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G2574" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H2574" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="I2574" t="n">
+        <v>638100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5024.xlsx
+++ b/data/5024.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2574"/>
+  <dimension ref="A1:I2575"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90468,6 +90468,41 @@
         <v>638100</v>
       </c>
     </row>
+    <row r="2575">
+      <c r="A2575" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2575" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2575" t="inlineStr">
+        <is>
+          <t>5024</t>
+        </is>
+      </c>
+      <c r="D2575" t="inlineStr">
+        <is>
+          <t>HUPSENG</t>
+        </is>
+      </c>
+      <c r="E2575" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="F2575" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G2575" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="H2575" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="I2575" t="n">
+        <v>595700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5024.xlsx
+++ b/data/5024.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2575"/>
+  <dimension ref="A1:I2576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90503,6 +90503,41 @@
         <v>595700</v>
       </c>
     </row>
+    <row r="2576">
+      <c r="A2576" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2576" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2576" t="inlineStr">
+        <is>
+          <t>5024</t>
+        </is>
+      </c>
+      <c r="D2576" t="inlineStr">
+        <is>
+          <t>HUPSENG</t>
+        </is>
+      </c>
+      <c r="E2576" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="F2576" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="G2576" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H2576" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="I2576" t="n">
+        <v>463500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5024.xlsx
+++ b/data/5024.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2576"/>
+  <dimension ref="A1:I2577"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90538,6 +90538,41 @@
         <v>463500</v>
       </c>
     </row>
+    <row r="2577">
+      <c r="A2577" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2577" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2577" t="inlineStr">
+        <is>
+          <t>5024</t>
+        </is>
+      </c>
+      <c r="D2577" t="inlineStr">
+        <is>
+          <t>HUPSENG</t>
+        </is>
+      </c>
+      <c r="E2577" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F2577" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G2577" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="H2577" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="I2577" t="n">
+        <v>415700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5024.xlsx
+++ b/data/5024.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2577"/>
+  <dimension ref="A1:I2578"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90573,6 +90573,41 @@
         <v>415700</v>
       </c>
     </row>
+    <row r="2578">
+      <c r="A2578" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2578" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2578" t="inlineStr">
+        <is>
+          <t>5024</t>
+        </is>
+      </c>
+      <c r="D2578" t="inlineStr">
+        <is>
+          <t>HUPSENG</t>
+        </is>
+      </c>
+      <c r="E2578" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="F2578" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="G2578" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="H2578" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="I2578" t="n">
+        <v>581700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5024.xlsx
+++ b/data/5024.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2578"/>
+  <dimension ref="A1:I2579"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90608,6 +90608,41 @@
         <v>581700</v>
       </c>
     </row>
+    <row r="2579">
+      <c r="A2579" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2579" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2579" t="inlineStr">
+        <is>
+          <t>5024</t>
+        </is>
+      </c>
+      <c r="D2579" t="inlineStr">
+        <is>
+          <t>HUPSENG</t>
+        </is>
+      </c>
+      <c r="E2579" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="F2579" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="G2579" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="H2579" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="I2579" t="n">
+        <v>266700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5024.xlsx
+++ b/data/5024.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2579"/>
+  <dimension ref="A1:I2580"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90643,6 +90643,41 @@
         <v>266700</v>
       </c>
     </row>
+    <row r="2580">
+      <c r="A2580" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2580" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2580" t="inlineStr">
+        <is>
+          <t>5024</t>
+        </is>
+      </c>
+      <c r="D2580" t="inlineStr">
+        <is>
+          <t>HUPSENG</t>
+        </is>
+      </c>
+      <c r="E2580" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="F2580" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="G2580" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="H2580" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="I2580" t="n">
+        <v>629400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5024.xlsx
+++ b/data/5024.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2580"/>
+  <dimension ref="A1:I2581"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90678,6 +90678,41 @@
         <v>629400</v>
       </c>
     </row>
+    <row r="2581">
+      <c r="A2581" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2581" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2581" t="inlineStr">
+        <is>
+          <t>5024</t>
+        </is>
+      </c>
+      <c r="D2581" t="inlineStr">
+        <is>
+          <t>HUPSENG</t>
+        </is>
+      </c>
+      <c r="E2581" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F2581" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G2581" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H2581" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I2581" t="n">
+        <v>524800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5024.xlsx
+++ b/data/5024.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2581"/>
+  <dimension ref="A1:I2582"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90713,6 +90713,41 @@
         <v>524800</v>
       </c>
     </row>
+    <row r="2582">
+      <c r="A2582" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2582" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2582" t="inlineStr">
+        <is>
+          <t>5024</t>
+        </is>
+      </c>
+      <c r="D2582" t="inlineStr">
+        <is>
+          <t>HUPSENG</t>
+        </is>
+      </c>
+      <c r="E2582" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F2582" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="G2582" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H2582" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="I2582" t="n">
+        <v>367800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5024.xlsx
+++ b/data/5024.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2582"/>
+  <dimension ref="A1:I2583"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90748,6 +90748,41 @@
         <v>367800</v>
       </c>
     </row>
+    <row r="2583">
+      <c r="A2583" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2583" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2583" t="inlineStr">
+        <is>
+          <t>5024</t>
+        </is>
+      </c>
+      <c r="D2583" t="inlineStr">
+        <is>
+          <t>HUPSENG</t>
+        </is>
+      </c>
+      <c r="E2583" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="F2583" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="G2583" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="H2583" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="I2583" t="n">
+        <v>430900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5024.xlsx
+++ b/data/5024.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2583"/>
+  <dimension ref="A1:I2584"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90783,6 +90783,41 @@
         <v>430900</v>
       </c>
     </row>
+    <row r="2584">
+      <c r="A2584" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2584" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2584" t="inlineStr">
+        <is>
+          <t>5024</t>
+        </is>
+      </c>
+      <c r="D2584" t="inlineStr">
+        <is>
+          <t>HUPSENG</t>
+        </is>
+      </c>
+      <c r="E2584" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F2584" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="G2584" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="H2584" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="I2584" t="n">
+        <v>143500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5024.xlsx
+++ b/data/5024.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2584"/>
+  <dimension ref="A1:I2585"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90818,6 +90818,41 @@
         <v>143500</v>
       </c>
     </row>
+    <row r="2585">
+      <c r="A2585" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2585" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2585" t="inlineStr">
+        <is>
+          <t>5024</t>
+        </is>
+      </c>
+      <c r="D2585" t="inlineStr">
+        <is>
+          <t>HUPSENG</t>
+        </is>
+      </c>
+      <c r="E2585" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="F2585" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="G2585" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="H2585" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="I2585" t="n">
+        <v>298900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
